--- a/第04组/项目计划表.xlsx
+++ b/第04组/项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -36,10 +36,59 @@
     <t>总结：</t>
   </si>
   <si>
+    <t>何舒静</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄丙升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈碧容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王增璟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡智杰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟悉需求规格说明书；完成普通用户用例图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟悉需求规格说明书；完成管理员用例图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟悉需求规格说明书；完成管理员用例图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏立明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟悉需求规格说明书</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>日期：2018.10.08 第六周周一</t>
-  </si>
-  <si>
-    <t>何舒静</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈碧容</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -47,10 +96,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>陈碧容</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>王增璟</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -59,35 +104,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>熟悉需求规格说明书；完成普通用户用例图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟悉需求规格说明书；完成管理员用例图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟悉需求规格说明书；完成管理员用例图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>苏立明</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>熟悉需求规格说明书</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>请假</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总结：</t>
+    <t>商讨，修改完善用例图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商讨，修改完善用例图，合并用例图</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -187,17 +212,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -500,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:D10"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -514,12 +539,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -537,99 +562,97 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
@@ -646,55 +669,85 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+      <c r="A17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A9:D10"/>
-    <mergeCell ref="A18:D19"/>
+    <mergeCell ref="A19:D20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第04组/项目计划表.xlsx
+++ b/第04组/项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -108,11 +108,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>商讨，修改完善用例图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>商讨，修改完善用例图，合并用例图</t>
+    <t>商讨完善用例图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商讨完善用例图，修改用例图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.10 第六周周三</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -525,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -742,12 +746,98 @@
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
     </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="A29:D30"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A9:D10"/>
     <mergeCell ref="A19:D20"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
